--- a/Code/Results/Cases/Case_2_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_86/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.09718324665917</v>
+        <v>13.8857373893269</v>
       </c>
       <c r="C2">
-        <v>21.6846567443298</v>
+        <v>12.70541594692189</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.37661963428588</v>
+        <v>10.01737787601544</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.050018269160657</v>
+        <v>3.646307196277861</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.01342688871416</v>
+        <v>29.41626950358807</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.20351777794748</v>
+        <v>16.09831625193257</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54242237726446</v>
+        <v>13.41996694170678</v>
       </c>
       <c r="C3">
-        <v>20.05771067258299</v>
+        <v>12.03972334951779</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.783261663310341</v>
+        <v>9.899375052573539</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.064724261117871</v>
+        <v>3.650925257400409</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.17876461174901</v>
+        <v>28.87340025757983</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.80892930995166</v>
+        <v>15.84666363530523</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.5452436617059</v>
+        <v>13.13171107950289</v>
       </c>
       <c r="C4">
-        <v>19.01708996105946</v>
+        <v>11.61582460479961</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.414602553485297</v>
+        <v>9.829073681116677</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.073856067477676</v>
+        <v>3.653899826192809</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.04078814691061</v>
+        <v>28.5396989231449</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.91573906420362</v>
+        <v>15.69591011986492</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.12783795907656</v>
+        <v>13.01390084365406</v>
       </c>
       <c r="C5">
-        <v>18.58217608923934</v>
+        <v>11.43950254710403</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.26331934221605</v>
+        <v>9.800993428307571</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.077609412541439</v>
+        <v>3.655147117978964</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.57421889941932</v>
+        <v>28.40375149824199</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.54215645909305</v>
+        <v>15.63550409830809</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.05785130346429</v>
+        <v>12.99432473054772</v>
       </c>
       <c r="C6">
-        <v>18.50929340203328</v>
+        <v>11.41001575853982</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.238137369759331</v>
+        <v>9.79636579220265</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.078234761034206</v>
+        <v>3.655356356415625</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.49657805419228</v>
+        <v>28.38118377560937</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.47953479767291</v>
+        <v>15.62553809925424</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53965954791914</v>
+        <v>13.13012332911635</v>
       </c>
       <c r="C7">
-        <v>19.01126896486012</v>
+        <v>11.61346082259347</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.41256646901863</v>
+        <v>9.828692646322464</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323726</v>
       </c>
       <c r="G7">
-        <v>2.073906548722809</v>
+        <v>3.653916505145128</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.03450715140539</v>
+        <v>28.53786515554759</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.91074006864221</v>
+        <v>15.6950911980338</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56971192707</v>
+        <v>13.72574269336042</v>
       </c>
       <c r="C8">
-        <v>21.13209417402046</v>
+        <v>12.47915941559864</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.1729378770658</v>
+        <v>9.976260154150971</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344765</v>
       </c>
       <c r="G8">
-        <v>2.055071725539959</v>
+        <v>3.647870740154809</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.38321332487838</v>
+        <v>29.22924628024607</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.7301202451719</v>
+        <v>16.01081491098055</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.23089345800248</v>
+        <v>14.86655597787522</v>
       </c>
       <c r="C9">
-        <v>24.98003056958449</v>
+        <v>14.04813205869586</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.63059918449757</v>
+        <v>10.28148489177095</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>2.018616605620071</v>
+        <v>3.637110939138823</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>38.90261662220239</v>
+        <v>30.57626426675839</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.02159566430139</v>
+        <v>16.656150422034</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.75495778552024</v>
+        <v>15.67705597860293</v>
       </c>
       <c r="C10">
-        <v>27.65004061325174</v>
+        <v>15.11342594154173</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.68680916893315</v>
+        <v>10.51367214559231</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>1.991575202894824</v>
+        <v>3.629863342777296</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.18875190188837</v>
+        <v>31.55301568879818</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.29845362662471</v>
+        <v>17.14132046254653</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.87527664630022</v>
+        <v>16.03777742432541</v>
       </c>
       <c r="C11">
-        <v>28.83972698045254</v>
+        <v>15.57769849600122</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.23045537511632</v>
+        <v>10.62064572848342</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>1.979061844486093</v>
+        <v>3.626706764953191</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>43.68415164667841</v>
+        <v>31.99303838699155</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.3110813383134</v>
+        <v>17.3633974006449</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.29633793757248</v>
+        <v>16.17308322880798</v>
       </c>
       <c r="C12">
-        <v>29.2876035383861</v>
+        <v>15.75049549574828</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.43780283539323</v>
+        <v>10.66131598117923</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>1.974276481581836</v>
+        <v>3.625531463040794</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.25147237677101</v>
+        <v>32.15892315375176</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.69199482196091</v>
+        <v>17.44760483588757</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.20578113854404</v>
+        <v>16.14400226942056</v>
       </c>
       <c r="C13">
-        <v>29.19124502465909</v>
+        <v>15.71341580248056</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.39318878178232</v>
+        <v>10.65255023996512</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>1.975309476061865</v>
+        <v>3.625783697280123</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.12922445889531</v>
+        <v>32.12323181168701</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.61005738208917</v>
+        <v>17.42946562173176</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.90997594813197</v>
+        <v>16.04893576753983</v>
       </c>
       <c r="C14">
-        <v>28.87662063078919</v>
+        <v>15.59197544009676</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.24753362807423</v>
+        <v>10.62398864007859</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>1.978669194431081</v>
+        <v>3.626609671746018</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>43.73079786444342</v>
+        <v>32.00670138717946</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.34246531503746</v>
+        <v>17.37032343808485</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.72840030440019</v>
+        <v>15.99053258736239</v>
       </c>
       <c r="C15">
-        <v>28.68359300649999</v>
+        <v>15.51719499957836</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.15818404336733</v>
+        <v>10.60651392814549</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>1.980720476357908</v>
+        <v>3.627118208056464</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.48692018663349</v>
+        <v>31.93522291747164</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.17825167121197</v>
+        <v>17.33410920069087</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.68124841396525</v>
+        <v>15.65330872314058</v>
       </c>
       <c r="C16">
-        <v>27.57186734549147</v>
+        <v>15.08266745081519</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.65546052138364</v>
+        <v>10.50670556303444</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>1.992387393762473</v>
+        <v>3.630072443701285</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.09111073259304</v>
+        <v>31.52416186893206</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.23187370384321</v>
+        <v>17.12682743961227</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.03225246656117</v>
+        <v>15.44428133538532</v>
       </c>
       <c r="C17">
-        <v>26.88409582799258</v>
+        <v>14.81082169109396</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.38069549966891</v>
+        <v>10.44579908717324</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>1.999479765636713</v>
+        <v>3.631920613463786</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.23555987643365</v>
+        <v>31.27079694341799</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.64588487378981</v>
+        <v>16.99995635506587</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65628364709485</v>
+        <v>15.32331083028994</v>
       </c>
       <c r="C18">
-        <v>26.48609579248373</v>
+        <v>14.65255324996099</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.22257877542995</v>
+        <v>10.41089635035693</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.003540300665286</v>
+        <v>3.632996855740166</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>40.74344455261581</v>
+        <v>31.12466981599801</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.30660812951861</v>
+        <v>16.92711745082659</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52850345604933</v>
+        <v>15.28222926589065</v>
       </c>
       <c r="C19">
-        <v>26.35089965713578</v>
+        <v>14.59864123822366</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.16902128475267</v>
+        <v>10.39910204116359</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.00491234108115</v>
+        <v>3.633363529038573</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40.57679359625452</v>
+        <v>31.07512910970709</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.19133034291417</v>
+        <v>16.90248110255404</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10161142814043</v>
+        <v>15.46661070161354</v>
       </c>
       <c r="C20">
-        <v>26.95755364656459</v>
+        <v>14.83995850792939</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.40995086307476</v>
+        <v>10.4522695644471</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>1.998726824770639</v>
+        <v>3.631722505188332</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.32663123118714</v>
+        <v>31.2978102064381</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.70849018710527</v>
+        <v>17.01344875762033</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.99693989825595</v>
+        <v>16.07689522513528</v>
       </c>
       <c r="C21">
-        <v>28.96909628281422</v>
+        <v>15.62772781054443</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.29034258370418</v>
+        <v>10.63237374479751</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>1.977683782307167</v>
+        <v>3.626366520829478</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.84778778707876</v>
+        <v>32.04095029473778</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.42112568787754</v>
+        <v>17.38769256695668</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.21763674447008</v>
+        <v>16.46816753970792</v>
       </c>
       <c r="C22">
-        <v>30.26901465870827</v>
+        <v>16.12498934118858</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.89232399160832</v>
+        <v>10.7510096947389</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>1.96364765907855</v>
+        <v>3.62298272436533</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.50228740525947</v>
+        <v>32.52225581782003</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.52607689336672</v>
+        <v>17.63289600381555</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.5674533699748</v>
+        <v>16.26007554401473</v>
       </c>
       <c r="C23">
-        <v>29.57620244139795</v>
+        <v>15.86122608644919</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.57143792652335</v>
+        <v>10.68761728588628</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>1.971171295431667</v>
+        <v>3.624778100562143</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.61822539953594</v>
+        <v>32.26581386055894</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.93735475116806</v>
+        <v>17.50199771110729</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.07026318666239</v>
+        <v>15.45651806922899</v>
       </c>
       <c r="C24">
-        <v>26.92435150631544</v>
+        <v>14.82679191553898</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.39672500567095</v>
+        <v>10.44934390658804</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>1.999067280990511</v>
+        <v>3.631812027239994</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.28545871251621</v>
+        <v>31.2855989468867</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.68019380706497</v>
+        <v>17.0073485214142</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.27194176491836</v>
+        <v>14.562058765201</v>
       </c>
       <c r="C25">
-        <v>23.96932267908871</v>
+        <v>13.63849473468293</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.23948526762396</v>
+        <v>10.19739200742938</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.02847853422649</v>
+        <v>3.639905506164345</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.68798102702587</v>
+        <v>30.21359276988478</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.15820969805393</v>
+        <v>16.4792746098998</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_86/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.8857373893269</v>
+        <v>21.09718324665903</v>
       </c>
       <c r="C2">
-        <v>12.70541594692189</v>
+        <v>21.68465674432962</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.01737787601544</v>
+        <v>10.3766196342858</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.646307196277861</v>
+        <v>2.050018269161051</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.41626950358807</v>
+        <v>35.01342688871387</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.09831625193257</v>
+        <v>19.20351777794738</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.41996694170678</v>
+        <v>19.54242237726444</v>
       </c>
       <c r="C3">
-        <v>12.03972334951779</v>
+        <v>20.05771067258291</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.899375052573539</v>
+        <v>9.783261663310391</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.650925257400409</v>
+        <v>2.064724261118141</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.87340025757983</v>
+        <v>33.1787646117492</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.84666363530523</v>
+        <v>17.8089293099516</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.13171107950289</v>
+        <v>18.54524366170585</v>
       </c>
       <c r="C4">
-        <v>11.61582460479961</v>
+        <v>19.01708996105968</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.829073681116677</v>
+        <v>9.414602553485302</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.653899826192809</v>
+        <v>2.073856067477933</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.5396989231449</v>
+        <v>32.04078814691086</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.69591011986492</v>
+        <v>16.91573906420362</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.01390084365406</v>
+        <v>18.12783795907663</v>
       </c>
       <c r="C5">
-        <v>11.43950254710403</v>
+        <v>18.58217608923929</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.800993428307571</v>
+        <v>9.26331934221605</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.655147117978964</v>
+        <v>2.077609412541316</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.40375149824199</v>
+        <v>31.57421889941963</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.63550409830809</v>
+        <v>16.54215645909311</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.99432473054772</v>
+        <v>18.05785130346427</v>
       </c>
       <c r="C6">
-        <v>11.41001575853982</v>
+        <v>18.50929340203329</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.79636579220265</v>
+        <v>9.23813736975929</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.655356356415625</v>
+        <v>2.078234761034212</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.38118377560937</v>
+        <v>31.49657805419224</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.62553809925424</v>
+        <v>16.47953479767287</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.13012332911635</v>
+        <v>18.5396595479193</v>
       </c>
       <c r="C7">
-        <v>11.61346082259347</v>
+        <v>19.01126896486013</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.828692646322464</v>
+        <v>9.412566469018653</v>
       </c>
       <c r="F7">
-        <v>15.26647399323726</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.653916505145128</v>
+        <v>2.073906548722814</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.53786515554759</v>
+        <v>32.03450715140534</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.6950911980338</v>
+        <v>16.91074006864227</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.72574269336042</v>
+        <v>20.56971192706988</v>
       </c>
       <c r="C8">
-        <v>12.47915941559864</v>
+        <v>21.1320941740203</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.976260154150971</v>
+        <v>10.17293787706575</v>
       </c>
       <c r="F8">
-        <v>16.53996406344765</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.647870740154809</v>
+        <v>2.055071725540231</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.22924628024607</v>
+        <v>34.38321332487831</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.01081491098055</v>
+        <v>18.73012024517179</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.86655597787522</v>
+        <v>24.23089345800255</v>
       </c>
       <c r="C9">
-        <v>14.04813205869586</v>
+        <v>24.98003056958498</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.28148489177095</v>
+        <v>11.63059918449759</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.637110939138823</v>
+        <v>2.018616605619926</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.57626426675839</v>
+        <v>38.90261662220281</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.656150422034</v>
+        <v>22.02159566430148</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.67705597860293</v>
+        <v>26.7549577855201</v>
       </c>
       <c r="C10">
-        <v>15.11342594154173</v>
+        <v>27.65004061325159</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.51367214559231</v>
+        <v>12.68680916893308</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.629863342777296</v>
+        <v>1.991575202894697</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.55301568879818</v>
+        <v>42.18875190188803</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.14132046254653</v>
+        <v>24.2984536266246</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.03777742432541</v>
+        <v>27.87527664630052</v>
       </c>
       <c r="C11">
-        <v>15.57769849600122</v>
+        <v>28.83972698045249</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.62064572848342</v>
+        <v>13.23045537511643</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.626706764953191</v>
+        <v>1.97906184448622</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.99303838699155</v>
+        <v>43.68415164667863</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.3633974006449</v>
+        <v>25.31108133831358</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.17308322880798</v>
+        <v>28.29633793757243</v>
       </c>
       <c r="C12">
-        <v>15.75049549574828</v>
+        <v>29.28760353838599</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.66131598117923</v>
+        <v>13.43780283539317</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.625531463040794</v>
+        <v>1.974276481581836</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.15892315375176</v>
+        <v>44.25147237677113</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.44760483588757</v>
+        <v>25.69199482196082</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.14400226942056</v>
+        <v>28.20578113854413</v>
       </c>
       <c r="C13">
-        <v>15.71341580248056</v>
+        <v>29.19124502465914</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.65255023996512</v>
+        <v>13.39318878178236</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.625783697280123</v>
+        <v>1.975309476061727</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.12323181168701</v>
+        <v>44.12922445889539</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.42946562173176</v>
+        <v>25.61005738208922</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.04893576753983</v>
+        <v>27.90997594813205</v>
       </c>
       <c r="C14">
-        <v>15.59197544009676</v>
+        <v>28.87662063078925</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.62398864007859</v>
+        <v>13.24753362807427</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.626609671746018</v>
+        <v>1.978669194431078</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.00670138717946</v>
+        <v>43.73079786444396</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.37032343808485</v>
+        <v>25.34246531503754</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.99053258736239</v>
+        <v>27.72840030440049</v>
       </c>
       <c r="C15">
-        <v>15.51719499957836</v>
+        <v>28.68359300650023</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.60651392814549</v>
+        <v>13.15818404336737</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.627118208056464</v>
+        <v>1.980720476357912</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.93522291747164</v>
+        <v>43.48692018663392</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.33410920069087</v>
+        <v>25.17825167121216</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.65330872314058</v>
+        <v>26.68124841396526</v>
       </c>
       <c r="C16">
-        <v>15.08266745081519</v>
+        <v>27.57186734549153</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.50670556303444</v>
+        <v>12.6554605213837</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.630072443701285</v>
+        <v>1.992387393762608</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.52416186893206</v>
+        <v>42.09111073259349</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.12682743961227</v>
+        <v>24.23187370384324</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.44428133538532</v>
+        <v>26.0322524665612</v>
       </c>
       <c r="C17">
-        <v>14.81082169109396</v>
+        <v>26.88409582799255</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.44579908717324</v>
+        <v>12.38069549966889</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.631920613463786</v>
+        <v>1.999479765637106</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.27079694341799</v>
+        <v>41.23555987643385</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.99995635506587</v>
+        <v>23.6458848737898</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.32331083028994</v>
+        <v>25.65628364709502</v>
       </c>
       <c r="C18">
-        <v>14.65255324996099</v>
+        <v>26.48609579248393</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.41089635035693</v>
+        <v>12.22257877542995</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.632996855740166</v>
+        <v>2.003540300665278</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.12466981599801</v>
+        <v>40.74344455261635</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.92711745082659</v>
+        <v>23.30660812951869</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.28222926589065</v>
+        <v>25.52850345604942</v>
       </c>
       <c r="C19">
-        <v>14.59864123822366</v>
+        <v>26.35089965713588</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.39910204116359</v>
+        <v>12.16902128475272</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>3.633363529038573</v>
+        <v>2.004912341081409</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.07512910970709</v>
+        <v>40.57679359625485</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.90248110255404</v>
+        <v>23.19133034291424</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.46661070161354</v>
+        <v>26.10161142814042</v>
       </c>
       <c r="C20">
-        <v>14.83995850792939</v>
+        <v>26.95755364656442</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.4522695644471</v>
+        <v>12.40995086307481</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.631722505188332</v>
+        <v>1.99872682477065</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.2978102064381</v>
+        <v>41.32663123118753</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.01344875762033</v>
+        <v>23.70849018710522</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.07689522513528</v>
+        <v>27.99693989825589</v>
       </c>
       <c r="C21">
-        <v>15.62772781054443</v>
+        <v>28.96909628281432</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.63237374479751</v>
+        <v>13.29034258370415</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.626366520829478</v>
+        <v>1.977683782307422</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.04095029473778</v>
+        <v>43.84778778707893</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.38769256695668</v>
+        <v>25.42112568787752</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.46816753970792</v>
+        <v>29.21763674447003</v>
       </c>
       <c r="C22">
-        <v>16.12498934118858</v>
+        <v>30.26901465870825</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.7510096947389</v>
+        <v>13.89232399160829</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026779</v>
       </c>
       <c r="G22">
-        <v>3.62298272436533</v>
+        <v>1.963647659078566</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.52225581782003</v>
+        <v>45.50228740525955</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.63289600381555</v>
+        <v>26.5260768933667</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.26007554401473</v>
+        <v>28.56745336997482</v>
       </c>
       <c r="C23">
-        <v>15.86122608644919</v>
+        <v>29.57620244139803</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.68761728588628</v>
+        <v>13.57143792652335</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>3.624778100562143</v>
+        <v>1.97117129543192</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.26581386055894</v>
+        <v>44.61822539953613</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.50199771110729</v>
+        <v>25.93735475116809</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.45651806922899</v>
+        <v>26.07026318666242</v>
       </c>
       <c r="C24">
-        <v>14.82679191553898</v>
+        <v>26.92435150631548</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.44934390658804</v>
+        <v>12.39672500567096</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575582</v>
       </c>
       <c r="G24">
-        <v>3.631812027239994</v>
+        <v>1.999067280990504</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.2855989468867</v>
+        <v>41.2854587125162</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.0073485214142</v>
+        <v>23.680193807065</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.562058765201</v>
+        <v>23.27194176491841</v>
       </c>
       <c r="C25">
-        <v>13.63849473468293</v>
+        <v>23.96932267908862</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.19739200742938</v>
+        <v>11.23948526762395</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>3.639905506164345</v>
+        <v>2.028478534226477</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.21359276988478</v>
+        <v>37.68798102702615</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.4792746098998</v>
+        <v>21.15820969805388</v>
       </c>
       <c r="N25">
         <v>0</v>
